--- a/ProjektFiler/xlsx-docs/sonar.xlsx
+++ b/ProjektFiler/xlsx-docs/sonar.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\IdeaProjects\Machine_Learning_DT\ProjektFiler\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="our dtc" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="our rf" sheetId="3" r:id="rId3"/>
     <sheet name="their rf" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -63,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,14 +122,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -181,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,10 +200,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,7 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,14 +409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,27 +436,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.70984950890233711</v>
+        <v>0.4120535714285715</v>
       </c>
       <c r="C2">
-        <v>72.38095238095238</v>
+        <v>53.80952380952382</v>
       </c>
       <c r="D2">
-        <v>0.72839208177443471</v>
+        <v>0.3551515151515152</v>
       </c>
       <c r="E2">
-        <v>0.7186832611832612</v>
+        <v>0.5218181818181818</v>
       </c>
       <c r="F2">
-        <v>5.004405975341797E-5</v>
+        <v>5.002021789550782e-05</v>
       </c>
       <c r="G2">
-        <v>3.266300964355469</v>
+        <v>0.04188404083251953</v>
       </c>
     </row>
   </sheetData>
@@ -480,14 +465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -507,27 +492,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.72169960307891334</v>
+        <v>0.7131761716544325</v>
       </c>
       <c r="C2">
-        <v>72.857142857142861</v>
+        <v>71.42857142857142</v>
       </c>
       <c r="D2">
-        <v>0.7418109668109667</v>
+        <v>0.723161421911422</v>
       </c>
       <c r="E2">
-        <v>0.73675324675324672</v>
+        <v>0.7181818181818181</v>
       </c>
       <c r="F2">
-        <v>1.000881195068359E-4</v>
+        <v>0.0001502513885498047</v>
       </c>
       <c r="G2">
-        <v>5.405426025390625E-3</v>
+        <v>0.005603981018066406</v>
       </c>
     </row>
   </sheetData>
@@ -536,14 +521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,27 +548,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8380849279401541</v>
+        <v>0.417428493375755</v>
       </c>
       <c r="C2">
-        <v>84.761904761904745</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="D2">
-        <v>0.85685828877005343</v>
+        <v>0.4060221967574908</v>
       </c>
       <c r="E2">
-        <v>0.84125180375180386</v>
+        <v>0.4659090909090908</v>
       </c>
       <c r="F2">
-        <v>4.4550895690917969E-3</v>
+        <v>0.003502893447875977</v>
       </c>
       <c r="G2">
-        <v>3.701624178886413</v>
+        <v>0.06479592323303222</v>
       </c>
     </row>
   </sheetData>
@@ -592,14 +577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -619,27 +604,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.77752023839454387</v>
+        <v>0.7065294525548935</v>
       </c>
       <c r="C2">
-        <v>78.571428571428569</v>
+        <v>70.95238095238093</v>
       </c>
       <c r="D2">
-        <v>0.800585248085248</v>
+        <v>0.7188131313131312</v>
       </c>
       <c r="E2">
-        <v>0.78676046176046177</v>
+        <v>0.7136363636363636</v>
       </c>
       <c r="F2">
-        <v>7.4763298034667973E-4</v>
+        <v>0.0009005546569824218</v>
       </c>
       <c r="G2">
-        <v>1.5736579895019531E-2</v>
+        <v>0.01550934314727783</v>
       </c>
     </row>
   </sheetData>
